--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1679146.328330893</v>
+        <v>1783325.962781963</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>261.2100966413618</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.87303154284971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>161.2026687524964</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.81392340863826</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.943518040493634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>29.76498982117685</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>10.13497567638976</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.6790433100445</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>287.8938041265583</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>87.93270968653189</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>101.7384833579996</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701331</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>51.36569740310325</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>245.9454996361808</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>18.938329309431</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.04917322725547</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>225.9908369016797</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17501931583824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4665281367336</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>95.25381996636061</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.7084378797738</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>85.08368458989469</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>95.12712756824212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>125.2193560244681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>144.108843301494</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>261.3661834507347</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833859</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1261.532988317206</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>892.5704713767946</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1648.132828381328</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.1048757766375</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="C4" t="n">
-        <v>472.1048757766375</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>321.9882363643018</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9882363643018</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201677</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.1048757766375</v>
+        <v>410.9915598002983</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1969.423143692381</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1600.460626751969</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1242.194928145219</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3119.628073993394</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X5" t="n">
-        <v>2746.162315732314</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>2356.022983756503</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>472.1048757766374</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>472.1048757766374</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>321.9882363643017</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>174.0751427819085</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>174.0751427819085</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>636.6559970312343</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1969.423143692379</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1969.423143692379</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1611.157445085629</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1225.369192487385</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>814.3832876977772</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>399.3108375427736</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2746.162315732313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2356.022983756501</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>832.0660869429007</v>
+        <v>818.1208610121244</v>
       </c>
       <c r="T10" t="n">
-        <v>610.2994715124267</v>
+        <v>818.1208610121244</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1966046380703</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,22 +5767,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2390.347757088083</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2207.492922742988</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,52 +5986,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817739</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,19 +6788,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474266</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>2877.307316025036</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>3474.685803651587</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.95525898292</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C40" t="n">
-        <v>889.0190760550126</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D40" t="n">
-        <v>738.9024366426769</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>590.9893430602838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>444.0993955623734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.385853854707</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.396302956689</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.603723813159</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,22 +7429,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311364</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613761</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,52 +7636,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7737,16 +7739,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.7713260796062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.32607348286621</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>60.19363748756444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.11969353038562</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>108.2431272523036</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.2691783702304</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667954</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>80.44045370237416</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.11969353038572</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>40.30478226780073</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>142.414155035097</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>24.81829093850945</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823058</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.3058620398</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.3058620398</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583916</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907535</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907545</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26439,19 +26441,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186726</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186729</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26522,43 +26524,43 @@
         <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929457</v>
       </c>
       <c r="D6" t="n">
         <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>103462.2671176246</v>
+        <v>103462.2671176241</v>
       </c>
       <c r="F6" t="n">
-        <v>428874.7289249797</v>
+        <v>428874.7289249794</v>
       </c>
       <c r="G6" t="n">
+        <v>428874.7289249794</v>
+      </c>
+      <c r="H6" t="n">
+        <v>428874.728924979</v>
+      </c>
+      <c r="I6" t="n">
+        <v>428874.7289249793</v>
+      </c>
+      <c r="J6" t="n">
+        <v>211343.5265277023</v>
+      </c>
+      <c r="K6" t="n">
         <v>428874.7289249795</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>428874.7289249793</v>
       </c>
-      <c r="I6" t="n">
-        <v>428874.7289249795</v>
-      </c>
-      <c r="J6" t="n">
-        <v>211343.5265277019</v>
-      </c>
-      <c r="K6" t="n">
-        <v>428874.7289249797</v>
-      </c>
-      <c r="L6" t="n">
-        <v>428874.7289249795</v>
-      </c>
       <c r="M6" t="n">
-        <v>343819.7009894678</v>
+        <v>343819.7009894677</v>
       </c>
       <c r="N6" t="n">
-        <v>428874.7289249797</v>
+        <v>428874.72892498</v>
       </c>
       <c r="O6" t="n">
-        <v>428874.7289249795</v>
+        <v>428874.7289249796</v>
       </c>
       <c r="P6" t="n">
         <v>428874.7289249793</v>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.126843945846627e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.126843945846627e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.126843945846627e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>108.5210040371073</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.3649071132039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>6.044152346131398</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>133.607124614293</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>371.9868520317681</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>319.4759788962361</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.8908325826385</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4586000137835</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.713960260762121</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9994429835154222</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>88.03054197344231</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28141,13 +28143,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.126843945846627e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.739531070051931e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28156,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.126843945846627e-14</v>
       </c>
     </row>
     <row r="12">
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182831</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33508,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>300.5543663814921</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949776</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060393</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.9999866016179</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783325.962781963</v>
+        <v>1779313.352767971</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>261.2100966413618</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>161.2026687524964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>29.76498982117685</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>281.8953352974225</v>
       </c>
     </row>
     <row r="6">
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>115.0138334144186</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.13497567638976</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482832</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>287.8938041265583</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>101.7384833579996</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701331</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>245.9454996361808</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>10.74993283584265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>172.5702346036273</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>102.1557845699813</v>
+        <v>70.04554881124318</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.43112068613158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>180.1003471321691</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
-        <v>117.4665281367336</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>95.25381996636061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>18.7084378797738</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>38.95525409458221</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>144.108843301494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.3430949700586</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.9915598002983</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2394.678395166736</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.1048757766374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>472.1048757766374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>321.9882363643017</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>174.0751427819085</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>174.0751427819085</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766374</v>
+        <v>182.687705739677</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.423143692379</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1969.423143692379</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D8" t="n">
-        <v>1611.157445085629</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1225.369192487385</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>814.3832876977772</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>399.3108375427736</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993393</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732313</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756501</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>818.1208610121244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>818.1208610121244</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816187</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537118</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>643.582908441376</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>495.6698148589829</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611858</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5785,13 +5785,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6399,37 +6399,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.3858538547</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817739</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2419.773435218391</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2877.307316025036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,19 +7493,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7602,19 +7602,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.83521572366092</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>43.26526345294991</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
-        <v>108.2431272523036</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>127.7255247667954</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881711.3058620398</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881711.3058620398</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907535</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405259</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
-      </c>
       <c r="E4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26441,7 +26441,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929457</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="E6" t="n">
-        <v>103462.2671176241</v>
+        <v>103114.8878632673</v>
       </c>
       <c r="F6" t="n">
-        <v>428874.7289249794</v>
+        <v>428527.3496706227</v>
       </c>
       <c r="G6" t="n">
-        <v>428874.7289249794</v>
+        <v>428527.3496706227</v>
       </c>
       <c r="H6" t="n">
-        <v>428874.728924979</v>
+        <v>428527.3496706224</v>
       </c>
       <c r="I6" t="n">
-        <v>428874.7289249793</v>
+        <v>428527.3496706227</v>
       </c>
       <c r="J6" t="n">
-        <v>211343.5265277023</v>
+        <v>210996.1472733452</v>
       </c>
       <c r="K6" t="n">
-        <v>428874.7289249795</v>
+        <v>428527.3496706223</v>
       </c>
       <c r="L6" t="n">
-        <v>428874.7289249793</v>
+        <v>428527.3496706227</v>
       </c>
       <c r="M6" t="n">
-        <v>343819.7009894677</v>
+        <v>343472.3217351103</v>
       </c>
       <c r="N6" t="n">
-        <v>428874.72892498</v>
+        <v>428527.3496706223</v>
       </c>
       <c r="O6" t="n">
-        <v>428874.7289249796</v>
+        <v>428527.3496706226</v>
       </c>
       <c r="P6" t="n">
-        <v>428874.7289249793</v>
+        <v>428527.3496706228</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.126843945846627e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.126843945846627e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.126843945846627e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>108.5210040371073</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.044152346131398</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>319.4759788962361</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>104.342603358631</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751867</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>155.8908325826385</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.9183408758547</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.713960260762121</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>88.03054197344231</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28143,13 +28143,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.126843945846627e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.739531070051931e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.126843945846627e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159439</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36767,7 +36767,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060393</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779313.352767971</v>
+        <v>1781073.883070756</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814396</v>
+        <v>183.1642512458434</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.8953352974225</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0138334144186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.76470074482832</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926747</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569188744</v>
+        <v>22.65115569188834</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5702346036273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>70.04554881124318</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>35.03063761899512</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.95525409458221</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4691,7 +4691,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
         <v>66.51211643218343</v>
@@ -4764,13 +4764,13 @@
         <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812244</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832071</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.687705739677</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.509627919559</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,13 +4804,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4819,10 +4819,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4849,7 +4849,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
         <v>66.5121164321834</v>
@@ -4962,52 +4962,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
         <v>558.0193492433381</v>
@@ -5190,61 +5190,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5363,13 +5363,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5466,16 +5466,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
         <v>1277.309669727408</v>
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.574488637966</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1022.530292372932</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>853.5941094450255</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>703.4774700326898</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>555.5643764502967</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487567</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.37805728168</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1652.96088724472</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1424.971336346702</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.178757203172</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
         <v>484.8112968429803</v>
@@ -6138,13 +6138,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="32">
@@ -6685,37 +6685,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6937,7 +6937,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8772357154528</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>274.8772357154528</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067404</v>
+        <v>144.5956654067395</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.83521572366092</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>75.37549921168807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>126.5688841976866</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>62.35543909864924</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.2357346473</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929457</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>103114.8878632673</v>
+        <v>103427.529192188</v>
       </c>
       <c r="F6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995442</v>
       </c>
       <c r="G6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995439</v>
       </c>
       <c r="H6" t="n">
-        <v>428527.3496706224</v>
+        <v>428839.9909995439</v>
       </c>
       <c r="I6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995439</v>
       </c>
       <c r="J6" t="n">
-        <v>210996.1472733452</v>
+        <v>211308.7886022662</v>
       </c>
       <c r="K6" t="n">
-        <v>428527.3496706223</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="L6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="M6" t="n">
-        <v>343472.3217351103</v>
+        <v>343784.9630640321</v>
       </c>
       <c r="N6" t="n">
-        <v>428527.3496706223</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="O6" t="n">
-        <v>428527.3496706226</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="P6" t="n">
-        <v>428527.3496706228</v>
+        <v>428839.9909995439</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803251</v>
+        <v>186.5668494326256</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.342603358631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.81814676751867</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>274.9183408758547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159439</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33657,10 +33657,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37305,10 +37305,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
